--- a/data/mass_SLA_C3M42_corrige.xlsx
+++ b/data/mass_SLA_C3M42_corrige.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denis/Documents/Encadrements/Stages/2021 - M2 - Benoit Berthet - Endopolyploidy/R_Git_PLASTENDO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3779078-184C-B540-9C93-4FAEB7C9E64F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66136B2-5C29-844E-BAA6-2039D321302E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="6460" windowWidth="23260" windowHeight="12580" xr2:uid="{3559DD76-C68A-4D2B-89EC-B528F504B059}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{3559DD76-C68A-4D2B-89EC-B528F504B059}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B9DC8D-D720-4A26-AB7C-B20353BB1975}">
   <dimension ref="A1:J505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
